--- a/biology/Zoologie/Charaxes_amycus/Charaxes_amycus.xlsx
+++ b/biology/Zoologie/Charaxes_amycus/Charaxes_amycus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charases amycus est une espèce d'insectes lépidoptères de la famille des Nymphalidae, de la sous-famille des Charaxinae et du genre Charaxes.
 </t>
@@ -511,49 +523,55 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes amycus a été nommé par Cajetan Freiherr von Felder et Rudolf Felder en 1861[1].
-Sous-espèces
-Charaxes amycus amycus
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes amycus a été nommé par Cajetan Freiherr von Felder et Rudolf Felder en 1861.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charaxes_amycus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_amycus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charaxes amycus amycus
 Charaxes amycus bayani Schröder &amp; Treadaway, 1982
 Charaxes amycus carolus Rothschild, 1900
 Charaxes amycus georgius Staudinger, 1892
 Charaxes amycus marion Schröder &amp; Treadaway
 Charaxes amycus negrosensis Schröder &amp; Treadaway, 1982
 Charaxes amycus myron Fruhstorfer, 1914
-Charaxes amycus theobaldo Schröder &amp; Treadaway, 1982[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charaxes_amycus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Charaxes_amycus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charaxes amycus est un grand papillon au dessus roux cuivré avec aux ailes antérieures une large bande marginale marron et à chaque aile postérieures deux queues.
-</t>
+Charaxes amycus theobaldo Schröder &amp; Treadaway, 1982.</t>
         </is>
       </c>
     </row>
@@ -578,12 +596,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes amycus est un grand papillon au dessus roux cuivré avec aux ailes antérieures une large bande marginale marron et à chaque aile postérieures deux queues.
+</t>
         </is>
       </c>
     </row>
@@ -611,14 +632,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est uniquement présent aux Philippines[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est uniquement présent aux Philippines.
 Sur les autres projets Wikimedia :
 Charaxes amycus, sur Wikimedia CommonsCharaxes amycus, sur Wikispecies
-Biotope
-Protection
-Pas de protection : les spécimens sont vendus sur internet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charaxes_amycus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charaxes_amycus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : les spécimens sont vendus sur internet.
 </t>
         </is>
       </c>
